--- a/Assets/Cards/Player Cards/Minister of Foreign Affairs.xlsx
+++ b/Assets/Cards/Player Cards/Minister of Foreign Affairs.xlsx
@@ -1,41 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\keremataman\GitHub\kardashev-scale\Assets\Cards\Player Cards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C45BA8-8664-4717-980F-6F840C2DB24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="27480" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={3313AF34-E30A-4079-AA17-22B00CCAF33B}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{3313AF34-E30A-4079-AA17-22B00CCAF33B}">
+    <comment ref="A2" authorId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Might want to go over diplomacy check</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -43,133 +39,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Subtype</t>
-  </si>
-  <si>
-    <t>Text</t>
+    <t>Choose a nation, then do a diplomacy check on them. If successful, improve or decrease relations by 1</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Basic Action</t>
   </si>
   <si>
-    <t>Research Agreement</t>
-  </si>
-  <si>
-    <t>Military Alliance</t>
-  </si>
-  <si>
-    <t>Trade Agreement</t>
-  </si>
-  <si>
-    <t>Casus Belli</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>Modify Relations</t>
+  </si>
+  <si>
+    <t>Gain 1 soft power token</t>
+  </si>
+  <si>
+    <t>Foreign Aid</t>
+  </si>
+  <si>
+    <t>This card remains face-up in front of you until your next turn. While this card is face up, you may spend a combination of 3 soft and hard power tokens or by 1 to negate the effects of a card played by another nation. This card returns to your hand at the start of your turn</t>
+  </si>
+  <si>
+    <t>Veto</t>
+  </si>
+  <si>
+    <t>Choose a nation, then do a diplomacy check on them. If successful, look at the top 3 cards of their nation deck. If your relations are at +2, you may rearrange the order of those 3 cards. Put the cards back into the nation's deck</t>
+  </si>
+  <si>
+    <t>Diplomatic Action</t>
   </si>
   <si>
     <t>Networking</t>
-  </si>
-  <si>
-    <t>Diplomatic Action</t>
-  </si>
-  <si>
-    <t>Choose a nation, then do a diplomacy check on them. If successful, look at the top 3 cards of their nation deck. If your relations are at +2, you may rearrange the order of those 3 cards. Put the cards back into the nation's deck</t>
-  </si>
-  <si>
-    <t>SALT Negotiations</t>
-  </si>
-  <si>
-    <t>Veto</t>
-  </si>
-  <si>
-    <t>Foreign Aid</t>
-  </si>
-  <si>
-    <t>Gain 1 soft power token</t>
-  </si>
-  <si>
-    <t>Peace Treaty</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Modify Relations</t>
-  </si>
-  <si>
-    <t>Choose a nation, then do a diplomacy check on them. If successful, improve or decrease relations by 1</t>
-  </si>
-  <si>
-    <t>Spreading Influence</t>
   </si>
   <si>
     <t>The senate votes on placing a casus belli token on a neutral territory or a territory of a nation that does not have nukes and you are at bad relations with. If you placed the token on another nation, set diplomatic relations status to war. Decrease relations with any other nation that is adjacent to the territory where the token was placed by 1.
 Minister of Defence may attack the territory with the casus belli token on it</t>
   </si>
   <si>
-    <t>Select 2 Foreign Nations, then do a diplomacy check with the nation you are the least friendly with. If you are successful, you may increase or decrease the relations between these two nations by 1</t>
-  </si>
-  <si>
-    <t>Kniving</t>
-  </si>
-  <si>
-    <t>The senate votes on which neutral territory to select for this card's effect. Roll a die, subtracting the distance between that territory and your nearest territory from the result. If the modified roll is positive, place that much influence on the selected territory.
-If you have more influence in that territory than any other Nation, gain half the resources of that territory at the start of each Phase, rounded up.</t>
-  </si>
-  <si>
-    <t>Nuke</t>
-  </si>
-  <si>
-    <t>Marshallah Plan</t>
-  </si>
-  <si>
-    <t>Select a Foreign Nation that has less gold than you. You may spend 2X Gold to improve relations with them by X. X cannot be more than 3</t>
-  </si>
-  <si>
     <t>Aggression</t>
   </si>
   <si>
-    <t>Big Stick Diplomacy</t>
-  </si>
-  <si>
-    <t>Canucks Eh?</t>
-  </si>
-  <si>
-    <t>Technological Superiority</t>
-  </si>
-  <si>
-    <t>Economic Warfare</t>
-  </si>
-  <si>
-    <t>Select a Foreign Nation that has less Kardashev Scale value than you. Take 4 Gold from them, and decrease relations with them by 1</t>
-  </si>
-  <si>
-    <t>Place this card in front of a Foreign Nation that has less soft power than you. On that Nation's turn, you may spend 1 soft power token and reduce relations with them by 1 to negate the effect of any card they play during their turn. Return this card to your deck after that Nation's turn ends</t>
-  </si>
-  <si>
-    <t>Select a Foreign Nation that has less military power than you. Take 4 Gold from them, and decrease relations with them by 1</t>
-  </si>
-  <si>
-    <t>Select a Foreign Nation that has less gold than you. Take 4 Gold from them, and decrease relations with them by 1</t>
-  </si>
-  <si>
-    <t>Agreement</t>
-  </si>
-  <si>
-    <t>This card remains face-up in front of you until your next turn. While this card is face up, you may spend a combination of 3 soft and hard power tokens as well as reducing relations with that nation by 1 to negate the effects of a card played by another nation. This card returns to your hand at the start of your turn</t>
-  </si>
-  <si>
-    <t>The ministers of defence and foreign affairs must each spend 1 gold to play this card. Play only if you have at least one nuke. Choose a nation you have +2 to diplomacy with, then do a diplomacy check on them. Both you and the selected nation remove X nukes from the game</t>
+    <t>Casus Belli</t>
   </si>
   <si>
     <t>The ministers of research and foreign affairs must each spend 1 gold to play this card.
 Select a nation you have +2 relations with, then do a diplomacy check on them. If successful, you become research allies with the selected nation
 The Minister of Research can use the KS rating of the nation that has this card in front of them as a science card.</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>Research Agreement</t>
   </si>
   <si>
     <t>The ministers of defence and foreign affairs must each spend 1 gold to play this card.
@@ -178,36 +113,112 @@
 When a nation is attacking or is attacked, military allies of that nation should give 1 soldier to the conflict to help out the ally, if able</t>
   </si>
   <si>
+    <t>Military Alliance</t>
+  </si>
+  <si>
+    <t>The ministers of defence and foreign affairs must each spend 1 gold to play this card. Play only if you have at least one nuke. Choose a nation you have +2 to diplomacy with, then do a diplomacy check on them. Both you and the selected nation remove X nukes from the game</t>
+  </si>
+  <si>
+    <t>Nuke</t>
+  </si>
+  <si>
+    <t>SALT Negotiations</t>
+  </si>
+  <si>
+    <t>The ministers of defence and foreign affairs must each spend 1 gold to play this card. Give 1 nuke or 3 troops to a Foreign Nation that already has nukes and improve relations with them by 1</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Protectorate</t>
+  </si>
+  <si>
+    <t>The ministers of Science and Foreign Affairs must each spend 1 gold to play this card. Select a Foreign Nation that has less KS than you. Increase their KS by 1, and improve relations with them by 1</t>
+  </si>
+  <si>
+    <t>Research Aid</t>
+  </si>
+  <si>
+    <t>The ministers of Foreign Affairs and Commerce must each spend 1 gold to play this card. Select a Foreign Nation and give them 3 Gold, and improve relations with them by 1</t>
+  </si>
+  <si>
+    <t>Shill</t>
+  </si>
+  <si>
     <t>The ministers of commerce and foreign affairs must each spend 1 gold to play this card. Select a nation you have +2 to diplomacy with, then do a diplomacy check. If succesful, you become economic allies with the selected nation
 The first time a nation you are economic allies with gains gold on their turn, Minister of Commerce recieves 1 Gold
 The first time Minister of Commerce receives gold on their turn, the economic ally receives 1 gold</t>
   </si>
   <si>
+    <t>Trade Agreement</t>
+  </si>
+  <si>
     <t>The senate votes on whether to play this card. If you are at a war with a nation, you may do a diplomacy check, adding 1 to the check for each soldier you own and subtracting 1 to the check for each soldier the other nation owns. If the check is successful, End the war, and increase relations by 1</t>
   </si>
   <si>
-    <t>The ministers of defence and foreign affairs must each spend 1 gold to play this card. Give 1 nuke to a Foreign Nation that already has nukes and improve relations with them by 1</t>
-  </si>
-  <si>
-    <t>Aid</t>
-  </si>
-  <si>
-    <t>The ministers of Science and Foreign Affairs must each spend 1 gold to play this card. Select a Foreign Nation that has less KS than you. Increase their KS by 1, and improve relations with them by 1</t>
-  </si>
-  <si>
-    <t>The ministers of Science and Commerce must each spend 1 gold to play this card. Select a Foreign Nation and give them 3 Gold, and improve relations with them by 1</t>
+    <t>Peace Treaty</t>
+  </si>
+  <si>
+    <t>The senate votes on which neutral territory to select for this card's effect. Roll a die, subtracting the distance between that territory and your nearest territory from the result. If the modified roll is positive, place that much influence on the selected territory.
+If you have more influence in that territory than any other Nation, gain half the bonuses of that territory at the start of each Phase, rounded up.</t>
+  </si>
+  <si>
+    <t>Spreading Influence</t>
+  </si>
+  <si>
+    <t>Select 2 Foreign Nations, then do a diplomacy check with each. If you are successful, you may increase or decrease the relations between these two nations by 1</t>
+  </si>
+  <si>
+    <t>Kniving</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation that has less gold than you. You may spend 2X Gold to improve relations with them by X. X cannot be more than 3</t>
+  </si>
+  <si>
+    <t>Marshallah Plan</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation that has less military power than you. Take 4 Gold from them, and decrease relations with them by 1</t>
+  </si>
+  <si>
+    <t>Big Stick Diplomacy</t>
+  </si>
+  <si>
+    <t>Place this card in front of a Foreign Nation that has less soft power than you. On that Nation's turn, you may spend 1 soft power token and reduce relations with them by 1 to negate the effect of any card they play during their turn. Return this card to your deck after that Nation's turn ends</t>
+  </si>
+  <si>
+    <t>Canucks Eh?</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation that has less Kardashev Scale value than you. Take 4 Gold from them, and decrease relations with them by 1</t>
+  </si>
+  <si>
+    <t>Technological Superiority</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation that has less gold than you. Take 4 Gold from them, and decrease relations with them by 1</t>
+  </si>
+  <si>
+    <t>Economic Warfare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,11 +227,167 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +400,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,57 +595,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Kerem Ataman" id="{4605E6EF-8B5A-4A56-90EF-6BF135E85DED}" userId="4877ff4c3120fcf5" providerId="Windows Live"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,7 +971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -373,7 +1006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -547,326 +1180,323 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2021-06-30T15:20:47.83" personId="{4605E6EF-8B5A-4A56-90EF-6BF135E85DED}" id="{3313AF34-E30A-4079-AA17-22B00CCAF33B}">
-    <text>Might want to go over diplomacy check</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="99.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.1363636363636" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.1363636363636" customWidth="1"/>
+    <col min="4" max="4" width="27.2818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="42.75" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="29.25" customHeight="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="57" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="85.5" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="42.75" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="9">
+    </row>
+    <row r="10" s="3" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="57" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="71.25" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:4">
+      <c r="A18" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" ht="42.75" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Cards/Player Cards/Minister of Foreign Affairs.xlsx
+++ b/Assets/Cards/Player Cards/Minister of Foreign Affairs.xlsx
@@ -13,33 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={3313AF34-E30A-4079-AA17-22B00CCAF33B}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Might want to go over diplomacy check</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Text</t>
   </si>
@@ -54,9 +29,6 @@
   </si>
   <si>
     <t>Choose a nation, then do a diplomacy check on them. If successful, improve or decrease relations by 1</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>Basic Action</t>
@@ -117,6 +89,9 @@
   </si>
   <si>
     <t>The ministers of defence and foreign affairs must each spend 1 gold to play this card. Play only if you have at least one nuke. Choose a nation you have +2 to diplomacy with, then do a diplomacy check on them. Both you and the selected nation remove X nukes from the game</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Nuke</t>
@@ -208,12 +183,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +206,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -240,69 +244,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +306,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -329,62 +343,11 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -402,37 +365,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,127 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,12 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,15 +570,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,15 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -693,151 +638,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1217,106 +1180,106 @@
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="42.75" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="29.25" customHeight="1" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="57" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="42.75" spans="1:4">
       <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -1375,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1389,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -1403,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -1417,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -1431,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -1445,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>44</v>
@@ -1459,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -1473,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -1487,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>50</v>
@@ -1497,6 +1460,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>